--- a/Configs/luaCSTestConfig.xlsx
+++ b/Configs/luaCSTestConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="19170" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1186,7 +1186,7 @@
     <col min="7" max="7" width="21.5666666666667" customWidth="1"/>
     <col min="8" max="8" width="23.85" customWidth="1"/>
     <col min="9" max="9" width="18.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.4916666666667" customWidth="1"/>
+    <col min="10" max="10" width="32.2916666666667" customWidth="1"/>
     <col min="11" max="11" width="24.425" customWidth="1"/>
     <col min="12" max="12" width="43" customWidth="1"/>
     <col min="13" max="13" width="34.2166666666667" customWidth="1"/>
